--- a/newexcel.xlsx
+++ b/newexcel.xlsx
@@ -11,33 +11,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Wait_for_table</t>
+  </si>
+  <si>
+    <t>Wait_for_dish</t>
+  </si>
+  <si>
+    <t>Time_to_eat</t>
+  </si>
+  <si>
+    <t>Finish_meal</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Order_name</t>
+  </si>
+  <si>
+    <t>Order_prep_time</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
   <si>
     <t>Prawns</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
   </si>
   <si>
     <t>Beef</t>
   </si>
   <si>
-    <t>Chicken</t>
+    <t>Lamb</t>
   </si>
   <si>
     <t>Fish</t>
-  </si>
-  <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>Lamb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -71,714 +101,714 @@
   </borders>
   <cellXfs count="2">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="1"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>216.6</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>216.6</v>
+        <v>135.2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>27.599999999999994</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>216.6</v>
+        <v>116.4</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>216.6</v>
+        <v>135.2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>15.6</v>
+        <v>8.4</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>15</v>
+        <v>9.799999999999997</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>239</v>
+        <v>133.8</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>239</v>
+        <v>135.2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>15</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>12.599999999999994</v>
+        <v>11.200000000000003</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>221.6</v>
+        <v>135.2</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>250</v>
+        <v>135.2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>12</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>24.599999999999994</v>
+        <v>7.200000000000003</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>244.6</v>
+        <v>121.2</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>250</v>
+        <v>135.2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
         <v>8</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>40.19999999999999</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>258.2</v>
+        <v>164</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>277.8</v>
+        <v>164</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K9" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>277.8</v>
+        <v>164</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>55.80000000000001</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>277.8</v>
+        <v>173</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>277.8</v>
+        <v>173</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>15.6</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>277.8</v>
+        <v>173</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>55.400000000000034</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>288.40000000000003</v>
+        <v>181</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>289.40000000000003</v>
+        <v>181</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>58</v>
+        <v>5.200000000000017</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>286</v>
+        <v>182.20000000000002</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>289.40000000000003</v>
+        <v>183.4</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>67.40000000000003</v>
+        <v>12.400000000000006</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>289.40000000000003</v>
+        <v>183.4</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>289.40000000000003</v>
+        <v>183.4</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>12</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>289.40000000000003</v>
+        <v>185.8</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>75.00000000000006</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <v>308.00000000000006</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K17" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>70</v>
+        <v>16.80000000000001</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>297</v>
+        <v>185.8</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>325</v>
+        <v>185.8</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>10</v>
+        <v>16.800000000000004</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>78</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>319</v>
+        <v>180.4</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>325</v>
+        <v>185.8</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>90.60000000000008</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <v>324.6000000000001</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>15.6</v>
-      </c>
       <c r="J20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>16</v>
@@ -786,34 +816,34 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>88</v>
+        <v>7.400000000000006</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>325</v>
+        <v>177.4</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>16</v>
@@ -821,1577 +851,4622 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>95.60000000000008</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>347.6000000000001</v>
+        <v>175</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>101</v>
+        <v>16.80000000000001</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>354</v>
+        <v>182.8</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>10</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>107.60000000000008</v>
+        <v>20.200000000000017</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>353.6000000000001</v>
+        <v>180.20000000000002</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>108</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>362</v>
+        <v>170.4</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>367.2000000000001</v>
+        <v>197.6</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="n">
         <v>10</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>120.2000000000001</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1" t="n">
         <v>10</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>367.2000000000001</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>367.2000000000001</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>117</v>
+        <v>22.599999999999994</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>373</v>
+        <v>197.6</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>399.8000000000001</v>
+        <v>197.6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I28" s="1" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" s="1" t="n">
         <v>10</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>377</v>
+        <v>198</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>399.8000000000001</v>
+        <v>198</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>134.80000000000013</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>381.8000000000001</v>
+        <v>184</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>399.8000000000001</v>
+        <v>200</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>15.6</v>
+        <v>7</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1" t="n">
         <v>8</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>399.8000000000001</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>152.80000000000013</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>399.8000000000001</v>
+        <v>200</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>399.8000000000001</v>
+        <v>200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>147</v>
+        <v>9.599999999999994</v>
       </c>
       <c r="E33" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>157</v>
+        <v>12.800000000000011</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>410</v>
+        <v>192.8</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>427</v>
+        <v>200.6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>10</v>
+        <v>12.8</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>159.40000000000015</v>
+        <v>8.599999999999994</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>418.40000000000015</v>
+        <v>193.6</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>427</v>
+        <v>201.4</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>170</v>
+        <v>15.400000000000006</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>427</v>
+        <v>201.4</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>427</v>
+        <v>201.4</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>13</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>167.40000000000015</v>
+        <v>15.400000000000006</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>431.40000000000015</v>
+        <v>210.4</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>442</v>
+        <v>210.4</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>18</v>
+        <v>14.4</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>168</v>
+        <v>10.400000000000006</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>435</v>
+        <v>210.4</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>442</v>
+        <v>210.4</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>8</v>
+        <v>8.8</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>179.40000000000015</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>440.40000000000015</v>
+        <v>193</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>442</v>
+        <v>210.4</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>178</v>
+        <v>14.400000000000006</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>437</v>
+        <v>197.4</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>442</v>
+        <v>210.4</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>10</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>442</v>
+        <v>208</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>442</v>
+        <v>210.4</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>192.00000000000017</v>
+        <v>19</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>453.00000000000017</v>
+        <v>205</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>476.00000000000017</v>
+        <v>214.8</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>198</v>
+        <v>13.800000000000011</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>464</v>
+        <v>214.8</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>476.00000000000017</v>
+        <v>214.8</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>204.00000000000017</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>476.00000000000017</v>
+        <v>199</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>476.00000000000017</v>
+        <v>214.8</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>467</v>
+        <v>216</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>479.00000000000017</v>
+        <v>223</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>209.00000000000017</v>
+        <v>12</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>479.00000000000017</v>
+        <v>223</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>479.00000000000017</v>
+        <v>223</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>12</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>210</v>
+        <v>9.400000000000006</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>482</v>
+        <v>219.4</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>507</v>
+        <v>223</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>217.00000000000017</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>482.00000000000017</v>
+        <v>208.4</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>507</v>
+        <v>223</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>494</v>
+        <v>211</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>507</v>
+        <v>223</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>10</v>
+        <v>12.6</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>229.00000000000017</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>503.00000000000017</v>
+        <v>207</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>507</v>
+        <v>223</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>235</v>
+        <v>10.800000000000011</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>507</v>
+        <v>215.8</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>507</v>
+        <v>224.4</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I51" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K51" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>228.6000000000002</v>
+        <v>14.400000000000006</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>517.6000000000001</v>
+        <v>224.4</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>517.6000000000001</v>
+        <v>224.4</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="J52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="K52" s="1" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>512</v>
+        <v>218</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>517.6000000000001</v>
+        <v>228</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I53" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K53" s="1" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>243.20000000000016</v>
+        <v>12.400000000000006</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>536.2000000000002</v>
+        <v>214.4</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>536.2000000000002</v>
+        <v>228</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>15.6</v>
+        <v>6</v>
       </c>
       <c r="J54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>532</v>
+        <v>218</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>554</v>
+        <v>228</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>255.80000000000018</v>
+        <v>19</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>534.8000000000002</v>
+        <v>226</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>554</v>
+        <v>228</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>15.6</v>
+        <v>11</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>249</v>
+        <v>20</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>532</v>
+        <v>228</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>554</v>
+        <v>228</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>8</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>554</v>
+        <v>221</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>554</v>
+        <v>228</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>13</v>
+        <v>12.000000000000002</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>286</v>
+        <v>14.800000000000011</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>581</v>
+        <v>234.8</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>581</v>
+        <v>235.6</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>266.4000000000002</v>
+        <v>18.599999999999994</v>
       </c>
       <c r="E60" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>9.600000000000001</v>
+      </c>
+      <c r="J60" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F60" s="1" t="n">
-        <v>557.4000000000002</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>581.4000000000002</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J60" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K60" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>549</v>
+        <v>224</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>581.4000000000002</v>
+        <v>239</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>275</v>
+        <v>15.199999999999989</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>571</v>
+        <v>231.2</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>581.4000000000002</v>
+        <v>239</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>278.4000000000002</v>
+        <v>15.400000000000006</v>
       </c>
       <c r="E63" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>219.4</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" s="1" t="n">
         <v>19</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>581.4000000000002</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>581.4000000000002</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" s="1" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>286.4000000000002</v>
+        <v>16.80000000000001</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>589.4000000000002</v>
+        <v>228.8</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>595</v>
+        <v>239</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="J64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="E65" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I65" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B67" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>19.19999999999999</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>232.2</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>20.200000000000017</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>242.20000000000002</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>9.799999999999999</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>17.400000000000006</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>31.400000000000006</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>16.800000000000004</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>22.80000000000001</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>25.80000000000001</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>24.19999999999999</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>19.400000000000006</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>234.8</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>21.99999999999997</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>243.39999999999998</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>21.400000000000006</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>234.8</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>26.400000000000006</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>29.600000000000023</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>251.60000000000002</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>9.799999999999999</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>23.399999999999977</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>252.39999999999998</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>27.799999999999983</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>247.79999999999998</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>33.400000000000034</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>272.40000000000003</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>272.40000000000003</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>12.000000000000002</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>28.400000000000006</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>256.4</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>272.40000000000003</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>272.40000000000003</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>272.40000000000003</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>31.99999999999997</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>35.80000000000001</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>273.8</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>41.80000000000001</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>276.8</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>35.39999999999998</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>276.4</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>45.19999999999999</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>38.80000000000001</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>277.8</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>280.2</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>36.80000000000001</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>276.8</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>34.39999999999998</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>273.4</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>43.599999999999966</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>272.59999999999997</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>43.00000000000006</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>271.00000000000006</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>9.600000000000001</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>40.39999999999998</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J109" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K109" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>39.00000000000006</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>291.00000000000006</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>291.00000000000006</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>12.000000000000002</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>36.599999999999966</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" s="1" t="n">
+        <v>278.59999999999997</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>291.00000000000006</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J111" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K111" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>34.80000000000001</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <v>279.8</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>291.00000000000006</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J112" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K112" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>291.00000000000006</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>36.39999999999998</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="G114" s="1" t="n">
+        <v>291.00000000000006</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J114" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>31.19999999999999</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>292.2</v>
+      </c>
+      <c r="G115" s="1" t="n">
+        <v>292.2</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J115" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K115" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F116" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="G116" s="1" t="n">
+        <v>292.2</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>11.800000000000011</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="G117" s="1" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="J117" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K117" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="G118" s="1" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>28.400000000000006</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F119" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="G119" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="J119" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K119" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>27.200000000000017</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J120" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K120" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>35.400000000000006</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="G121" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J121" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K121" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>27.799999999999983</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F122" s="1" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="G122" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>34.599999999999994</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>297.2</v>
+      </c>
+      <c r="G123" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J123" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K123" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>18.599999999999994</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>28.99999999999997</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" s="1" t="n">
+        <v>286.59999999999997</v>
+      </c>
+      <c r="G124" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J124" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K124" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="G125" s="1" t="n">
+        <v>306.20000000000005</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>42.200000000000045</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>306.20000000000005</v>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>306.20000000000005</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="J126" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K126" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>32.80000000000001</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="G127" s="1" t="n">
+        <v>306.20000000000005</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J127" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="G128" s="1" t="n">
+        <v>306.20000000000005</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J128" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>10.599999999999966</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1" t="n">
+        <v>290.59999999999997</v>
+      </c>
+      <c r="G129" s="1" t="n">
+        <v>306.40000000000003</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J129" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K129" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>13.400000000000034</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <v>306.40000000000003</v>
+      </c>
+      <c r="G130" s="1" t="n">
+        <v>306.40000000000003</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J130" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K130" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>38.19999999999999</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <v>302.2</v>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>318.79999999999995</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J131" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K131" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>38.19999999999999</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>15.800000000000011</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>318.79999999999995</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>38.19999999999999</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>16.80000000000001</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F133" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="G133" s="1" t="n">
+        <v>318.79999999999995</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J133" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K133" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>38.19999999999999</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>21.599999999999966</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>318.79999999999995</v>
+      </c>
+      <c r="G134" s="1" t="n">
+        <v>318.79999999999995</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="J134" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K134" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>38.19999999999999</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>21.600000000000023</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <v>301.8</v>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>318.79999999999995</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J135" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K135" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>38.19999999999999</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>16.80000000000001</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>318.79999999999995</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>22.200000000000045</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <v>320.20000000000005</v>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>320.20000000000005</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>9.799999999999999</v>
+      </c>
+      <c r="J137" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K137" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>320.20000000000005</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="G139" s="1" t="n">
+        <v>320.20000000000005</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J139" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K139" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>20.80000000000001</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F140" s="1" t="n">
+        <v>307.8</v>
+      </c>
+      <c r="G140" s="1" t="n">
+        <v>320.20000000000005</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>25.19999999999999</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F141" s="1" t="n">
+        <v>316.2</v>
+      </c>
+      <c r="G141" s="1" t="n">
+        <v>320.20000000000005</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J141" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K141" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>33.00000000000006</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F142" s="1" t="n">
+        <v>321.00000000000006</v>
+      </c>
+      <c r="G142" s="1" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" s="1" t="n">
+        <v>16.800000000000004</v>
+      </c>
+      <c r="J142" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K142" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>33.00000000000006</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>18.799999999999898</v>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F143" s="1" t="n">
+        <v>318.79999999999995</v>
+      </c>
+      <c r="G143" s="1" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J143" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K143" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>33.00000000000006</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>15.599999999999966</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F144" s="1" t="n">
+        <v>318.6</v>
+      </c>
+      <c r="G144" s="1" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J144" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>33.00000000000006</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>21.799999999999955</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F145" s="1" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="G145" s="1" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J145" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K145" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>33.00000000000006</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>19.19999999999999</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F146" s="1" t="n">
+        <v>314.20000000000005</v>
+      </c>
+      <c r="G146" s="1" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J146" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K146" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>33.00000000000006</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>17.999999999999943</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F147" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="G147" s="1" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>302.0000000000002</v>
-      </c>
-      <c r="E66" s="1" t="n">
+      <c r="C148" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>15.800000000000011</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F148" s="1" t="n">
+        <v>334.8</v>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J148" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K148" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F149" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="G149" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J149" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="1" t="n">
-        <v>591.0000000000002</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="H66" s="1" t="s">
+      <c r="K149" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F150" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="G150" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>13.199999999999932</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F151" s="1" t="n">
+        <v>333.19999999999993</v>
+      </c>
+      <c r="G151" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J151" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K151" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>18.400000000000034</v>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F152" s="1" t="n">
+        <v>330.40000000000003</v>
+      </c>
+      <c r="G152" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J152" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I66" s="1" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1" t="n">
-        <v>14</v>
+      <c r="K152" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F153" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="G153" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J153" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K153" s="1" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/newexcel.xlsx
+++ b/newexcel.xlsx
@@ -49,19 +49,19 @@
     <t>Tables</t>
   </si>
   <si>
-    <t>Fish</t>
-  </si>
-  <si>
     <t>Beef</t>
   </si>
   <si>
-    <t>Lamb</t>
+    <t>Fish</t>
   </si>
   <si>
     <t>Vegetables</t>
   </si>
   <si>
     <t>Prawns</t>
+  </si>
+  <si>
+    <t>Lamb</t>
   </si>
   <si>
     <t>Chicken</t>
@@ -111,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -160,37 +160,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -198,10 +198,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
@@ -210,16 +210,16 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>6</v>
@@ -228,7 +228,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -236,37 +236,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -274,37 +274,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -312,37 +312,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <v>15</v>
-      </c>
       <c r="G6" s="1" t="n">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>104</v>
+        <v>167.60000000000002</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -350,37 +350,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
+        <v>13.800000000000011</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="G7" s="1" t="n">
-        <v>90</v>
+        <v>156.8</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>104</v>
+        <v>167.60000000000002</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -388,37 +388,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>18.599999999999994</v>
+        <v>18.600000000000023</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>120.6</v>
+        <v>158.60000000000002</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>128</v>
+        <v>167.60000000000002</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -426,37 +426,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>128</v>
+        <v>167.60000000000002</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -464,37 +464,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>4</v>
+        <v>24.600000000000023</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>110</v>
+        <v>167.60000000000002</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>128.6</v>
+        <v>167.60000000000002</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -502,37 +502,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>128.6</v>
+        <v>176.00000000000003</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -540,37 +540,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>9</v>
+        <v>28.00000000000003</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>17</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>125</v>
+        <v>176.00000000000003</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>128.6</v>
+        <v>176.00000000000003</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -578,37 +578,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>15.599999999999994</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>128.6</v>
+        <v>174</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>128.6</v>
+        <v>176.00000000000003</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -616,28 +616,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>128.6</v>
+        <v>176.00000000000003</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>5</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -654,37 +654,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>19</v>
+        <v>31.400000000000034</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>122</v>
+        <v>183.40000000000003</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>128.6</v>
+        <v>195</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -692,37 +692,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>14.399999999999991</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>129.39999999999998</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>4.8</v>
-      </c>
       <c r="K16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -730,37 +730,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -768,37 +768,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>20.799999999999983</v>
+        <v>37.400000000000034</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>151.79999999999998</v>
+        <v>192.40000000000003</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>151.79999999999998</v>
+        <v>195</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -806,37 +806,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>151.79999999999998</v>
+        <v>195</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -844,37 +844,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>23</v>
+        <v>45.80000000000004</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>146</v>
+        <v>194.80000000000004</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>151.79999999999998</v>
+        <v>195</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -882,37 +882,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>26.799999999999983</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>142.79999999999998</v>
+        <v>200</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>151.79999999999998</v>
+        <v>200</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -920,37 +920,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>15</v>
+        <v>45.60000000000005</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>154</v>
+        <v>203.60000000000005</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>154</v>
+        <v>208.00000000000006</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -958,37 +958,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>19.799999999999983</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>148.79999999999998</v>
+        <v>204</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>154</v>
+        <v>208.00000000000006</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -996,37 +996,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>54.00000000000006</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>208.00000000000006</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>208.00000000000006</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1034,28 +1034,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>7</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1072,37 +1072,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>24.799999999999983</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>166.79999999999998</v>
+        <v>215</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>182</v>
+        <v>218.00000000000006</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1110,37 +1110,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>29.599999999999994</v>
+        <v>37.00000000000006</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>17</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>173.6</v>
+        <v>218.00000000000006</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>182</v>
+        <v>218.00000000000006</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1148,37 +1148,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>182</v>
+        <v>227.80000000000007</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1186,37 +1186,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>38</v>
+        <v>39.80000000000007</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>17</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>182</v>
+        <v>222.80000000000007</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>182</v>
+        <v>227.80000000000007</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1224,37 +1224,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>30</v>
+        <v>45.80000000000007</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>174</v>
+        <v>227.80000000000007</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>187.8</v>
+        <v>227.80000000000007</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1262,37 +1262,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>187.8</v>
+        <v>227.80000000000007</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1300,37 +1300,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0</v>
+        <v>10.600000000000023</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>37.80000000000001</v>
+        <v>49.39999999999998</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>187.8</v>
+        <v>235</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>187.8</v>
+        <v>246.40000000000006</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1338,37 +1338,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0</v>
+        <v>10.600000000000023</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>40</v>
+        <v>50.200000000000045</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>185</v>
+        <v>236.80000000000007</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>187.8</v>
+        <v>246.40000000000006</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1376,37 +1376,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0</v>
+        <v>10.600000000000023</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>40.20000000000002</v>
+        <v>53.39999999999998</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>188.20000000000002</v>
+        <v>237</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>205.60000000000002</v>
+        <v>246.40000000000006</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1414,37 +1414,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0</v>
+        <v>10.600000000000023</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>41</v>
+        <v>59.80000000000004</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>194</v>
+        <v>246.40000000000006</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>205.60000000000002</v>
+        <v>246.40000000000006</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1452,37 +1452,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0</v>
+        <v>10.600000000000023</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>48.60000000000002</v>
+        <v>58.39999999999998</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>19</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>205.60000000000002</v>
+        <v>245</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>205.60000000000002</v>
+        <v>246.40000000000006</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1490,28 +1490,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0</v>
+        <v>10.600000000000023</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>46</v>
+        <v>63.39999999999998</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>205.60000000000002</v>
+        <v>246.40000000000006</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>5</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1528,37 +1528,37 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0</v>
+        <v>10.000000000000028</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>51</v>
+        <v>61.00000000000003</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>11</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>200</v>
+        <v>248.00000000000006</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>205.60000000000002</v>
+        <v>261.00000000000006</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1566,37 +1566,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0</v>
+        <v>10.000000000000028</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>54.60000000000002</v>
+        <v>61.99999999999997</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>199.60000000000002</v>
+        <v>254</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>205.60000000000002</v>
+        <v>261.00000000000006</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1604,37 +1604,37 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0</v>
+        <v>10.000000000000028</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>55</v>
+        <v>67.00000000000003</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>196</v>
+        <v>261.00000000000006</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>214.40000000000003</v>
+        <v>261.00000000000006</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1642,37 +1642,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0</v>
+        <v>10.000000000000028</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>56.400000000000034</v>
+        <v>66.99999999999997</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>214.40000000000003</v>
+        <v>254</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>214.40000000000003</v>
+        <v>261.00000000000006</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1680,37 +1680,37 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>54.60000000000002</v>
+        <v>71</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>221.60000000000002</v>
+        <v>268</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>221.60000000000002</v>
+        <v>268</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -1718,37 +1718,37 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>58</v>
+        <v>72.40000000000006</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>202</v>
+        <v>266.4000000000001</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>223.00000000000003</v>
+        <v>268</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -1756,37 +1756,37 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>65.00000000000003</v>
+        <v>50</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>223.00000000000003</v>
+        <v>269</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>223.00000000000003</v>
+        <v>269</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -1794,37 +1794,37 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>223.00000000000003</v>
+        <v>271.20000000000005</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -1832,37 +1832,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>68</v>
+        <v>56.200000000000045</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>216</v>
+        <v>271.20000000000005</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>223.00000000000003</v>
+        <v>271.20000000000005</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -1870,37 +1870,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0</v>
+        <v>42.80000000000007</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>43</v>
+        <v>33.19999999999999</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>236</v>
+        <v>279.00000000000006</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -1908,34 +1908,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0</v>
+        <v>42.80000000000007</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>59.400000000000034</v>
+        <v>35.19999999999993</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>245.40000000000003</v>
+        <v>273</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>245.40000000000003</v>
+        <v>284</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1" t="n">
         <v>7</v>
@@ -1946,28 +1946,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>26</v>
+        <v>42.80000000000007</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>40.60000000000002</v>
+        <v>39.19999999999999</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>225.60000000000002</v>
+        <v>282.00000000000006</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" s="1" t="n">
         <v>6</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -1984,37 +1984,37 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>26</v>
+        <v>42.80000000000007</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>43</v>
+        <v>40.19999999999993</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2025,25 +2025,25 @@
         <v>4</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>26</v>
+        <v>73.00000000000006</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>45.400000000000034</v>
+        <v>10.800000000000011</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>230.40000000000003</v>
+        <v>288.80000000000007</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>253</v>
+        <v>290.6000000000001</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J51" s="1" t="n">
         <v>4.8</v>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2063,34 +2063,34 @@
         <v>4</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>26</v>
+        <v>73.00000000000006</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>50</v>
+        <v>11.999999999999943</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>253</v>
+        <v>290.6000000000001</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K52" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L52" s="1" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2101,34 +2101,34 @@
         <v>4</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>26</v>
+        <v>73.00000000000006</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>51.400000000000034</v>
+        <v>15.600000000000023</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>247.40000000000003</v>
+        <v>290.6000000000001</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>253</v>
+        <v>290.6000000000001</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2136,37 +2136,37 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G54" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J54" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2174,37 +2174,37 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>54.400000000000034</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>244.40000000000003</v>
+        <v>302</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>253</v>
+        <v>314.4</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2212,37 +2212,37 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>253</v>
+        <v>314.4</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2250,25 +2250,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>266</v>
+        <v>314.4</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>17</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2288,28 +2288,28 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>63.80000000000004</v>
+        <v>14.399999999999977</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>261.80000000000007</v>
+        <v>314.4</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>266</v>
+        <v>314.4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J58" s="1" t="n">
         <v>8.4</v>
@@ -2318,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2326,37 +2326,37 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>0</v>
+        <v>90.60000000000008</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>63</v>
+        <v>13.39999999999992</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>13</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>266</v>
+        <v>326.4</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2364,37 +2364,37 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>0</v>
+        <v>90.60000000000008</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>64</v>
+        <v>13.799999999999898</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>273</v>
+        <v>321.4</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>278.20000000000005</v>
+        <v>326.4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2402,37 +2402,37 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>0</v>
+        <v>90.60000000000008</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>65.80000000000007</v>
+        <v>20.39999999999992</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>268.80000000000007</v>
+        <v>321</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>278.20000000000005</v>
+        <v>326.4</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2440,37 +2440,37 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>0</v>
+        <v>90.60000000000008</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>71</v>
+        <v>19.799999999999898</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>275</v>
+        <v>326.4</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>278.20000000000005</v>
+        <v>326.4</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2478,37 +2478,37 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>74.20000000000005</v>
+        <v>19.19999999999999</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>278.20000000000005</v>
+        <v>327.2</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>278.20000000000005</v>
+        <v>335</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2516,37 +2516,37 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L64" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2554,37 +2554,37 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>0</v>
+        <v>106.39999999999998</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>83.80000000000007</v>
+        <v>9.199999999999989</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>278.80000000000007</v>
+        <v>337.59999999999997</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>292</v>
+        <v>348.59999999999997</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2592,37 +2592,37 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>0</v>
+        <v>106.39999999999998</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>83</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>292</v>
+        <v>348.59999999999997</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2630,37 +2630,37 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>0</v>
+        <v>106.39999999999998</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>91</v>
+        <v>13.600000000000023</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>292</v>
+        <v>348.59999999999997</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2668,37 +2668,37 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>0</v>
+        <v>106.39999999999998</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>88</v>
+        <v>15.199999999999989</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>301</v>
+        <v>348.59999999999997</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>307.80000000000007</v>
+        <v>348.59999999999997</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2706,37 +2706,37 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>307.80000000000007</v>
+        <v>352</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2744,37 +2744,37 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>0</v>
+        <v>139.59999999999997</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>95.80000000000007</v>
+        <v>7</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>307.80000000000007</v>
+        <v>370.59999999999997</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>307.80000000000007</v>
+        <v>378.59999999999997</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J70" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2782,37 +2782,37 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>0</v>
+        <v>139.59999999999997</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>306</v>
+        <v>370.59999999999997</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>307.80000000000007</v>
+        <v>378.59999999999997</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2820,28 +2820,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>139.59999999999997</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>78.80000000000007</v>
-      </c>
-      <c r="F72" s="1" t="n">
-        <v>11</v>
-      </c>
       <c r="G72" s="1" t="n">
-        <v>294.80000000000007</v>
+        <v>378.59999999999997</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>311.80000000000007</v>
+        <v>378.59999999999997</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" s="1" t="n">
         <v>6</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2858,1101 +2858,37 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>0</v>
+        <v>139.59999999999997</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>84.80000000000007</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>297.80000000000007</v>
+        <v>375.59999999999997</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>311.80000000000007</v>
+        <v>378.59999999999997</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J73" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G74" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="H74" s="1" t="n">
-        <v>311.80000000000007</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>90.80000000000007</v>
-      </c>
-      <c r="F75" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="G75" s="1" t="n">
-        <v>311.80000000000007</v>
-      </c>
-      <c r="H75" s="1" t="n">
-        <v>311.80000000000007</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L75" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>27.400000000000034</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>93.40000000000003</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G76" s="1" t="n">
-        <v>314.80000000000007</v>
-      </c>
-      <c r="H76" s="1" t="n">
-        <v>314.80000000000007</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>14.000000000000028</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>83.99999999999997</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G77" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="H77" s="1" t="n">
-        <v>328.20000000000005</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K77" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>14.000000000000028</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>90.99999999999997</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G78" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="H78" s="1" t="n">
-        <v>328.20000000000005</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K78" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>14.000000000000028</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>90.80000000000004</v>
-      </c>
-      <c r="F79" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G79" s="1" t="n">
-        <v>327.80000000000007</v>
-      </c>
-      <c r="H79" s="1" t="n">
-        <v>328.20000000000005</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J79" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K79" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>14.000000000000028</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>99.20000000000002</v>
-      </c>
-      <c r="F80" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G80" s="1" t="n">
-        <v>328.20000000000005</v>
-      </c>
-      <c r="H80" s="1" t="n">
-        <v>328.20000000000005</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" s="1" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G81" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="H81" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K81" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L81" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="G82" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="H82" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J82" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K82" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>74.00000000000006</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>335.00000000000006</v>
-      </c>
-      <c r="H83" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" s="1" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K83" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>80.00000000000006</v>
-      </c>
-      <c r="F84" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G84" s="1" t="n">
-        <v>345.00000000000006</v>
-      </c>
-      <c r="H84" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K84" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C85" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="F85" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G85" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="H85" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J85" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K85" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>84.80000000000007</v>
-      </c>
-      <c r="F86" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G86" s="1" t="n">
-        <v>343.80000000000007</v>
-      </c>
-      <c r="H86" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J86" s="1" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K86" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L86" s="1" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C87" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="F87" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G87" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="H87" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K87" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C88" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>80.20000000000005</v>
-      </c>
-      <c r="F88" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G88" s="1" t="n">
-        <v>355.20000000000005</v>
-      </c>
-      <c r="H88" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J88" s="1" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K88" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L88" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="F89" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="H89" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K89" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="F90" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="H90" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>63.200000000000045</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>76.39999999999998</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <v>354.6</v>
-      </c>
-      <c r="H91" s="1" t="n">
-        <v>383.40000000000003</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J91" s="1" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K91" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C92" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>63.200000000000045</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>82.79999999999995</v>
-      </c>
-      <c r="F92" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="H92" s="1" t="n">
-        <v>383.40000000000003</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J92" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K92" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C93" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>63.200000000000045</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>82.39999999999998</v>
-      </c>
-      <c r="F93" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G93" s="1" t="n">
-        <v>363.6</v>
-      </c>
-      <c r="H93" s="1" t="n">
-        <v>383.40000000000003</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K93" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L93" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C94" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>63.200000000000045</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>87.19999999999999</v>
-      </c>
-      <c r="F94" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G94" s="1" t="n">
-        <v>383.40000000000003</v>
-      </c>
-      <c r="H94" s="1" t="n">
-        <v>383.40000000000003</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J94" s="1" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K94" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L94" s="1" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C95" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="D95" s="1" t="n">
-        <v>81.80000000000007</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>60.19999999999993</v>
-      </c>
-      <c r="F95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="H95" s="1" t="n">
-        <v>384.20000000000005</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K95" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C96" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>81.80000000000007</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>62.39999999999998</v>
-      </c>
-      <c r="F96" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G96" s="1" t="n">
-        <v>384.20000000000005</v>
-      </c>
-      <c r="H96" s="1" t="n">
-        <v>384.20000000000005</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J96" s="1" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K96" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L96" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C97" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="D97" s="1" t="n">
-        <v>81.80000000000007</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>67.19999999999993</v>
-      </c>
-      <c r="F97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="H97" s="1" t="n">
-        <v>384.20000000000005</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="C98" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>81.80000000000007</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>67.19999999999999</v>
-      </c>
-      <c r="F98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1" t="n">
-        <v>375.00000000000006</v>
-      </c>
-      <c r="H98" s="1" t="n">
-        <v>384.20000000000005</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J98" s="1" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="C99" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>72.80000000000007</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>67.19999999999993</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G99" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="H99" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J99" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K99" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="C100" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>72.80000000000007</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>71.59999999999997</v>
-      </c>
-      <c r="F100" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1" t="n">
-        <v>383.40000000000003</v>
-      </c>
-      <c r="H100" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="1" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K100" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L100" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="C101" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>72.80000000000007</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>74.19999999999993</v>
-      </c>
-      <c r="F101" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="H101" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J101" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K101" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/newexcel.xlsx
+++ b/newexcel.xlsx
@@ -49,22 +49,22 @@
     <t>Tables</t>
   </si>
   <si>
-    <t>Beef</t>
-  </si>
-  <si>
-    <t>Fish</t>
+    <t>Chicken</t>
   </si>
   <si>
     <t>Vegetables</t>
   </si>
   <si>
-    <t>Prawns</t>
+    <t>Beef</t>
   </si>
   <si>
     <t>Lamb</t>
   </si>
   <si>
-    <t>Chicken</t>
+    <t>Prawns</t>
+  </si>
+  <si>
+    <t>Fish</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -160,31 +160,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>0</v>
@@ -198,31 +198,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>6</v>
+        <v>4.800000000000011</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>141</v>
+        <v>142.8</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>1</v>
@@ -236,34 +236,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>4</v>
@@ -274,34 +274,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>12</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>147</v>
+        <v>146.4</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>4</v>
@@ -312,37 +312,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>6.800000000000011</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>167.60000000000002</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="K6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -350,37 +350,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>13.800000000000011</v>
+        <v>10.400000000000006</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>156.8</v>
+        <v>151.4</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>167.60000000000002</v>
+        <v>154</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -388,37 +388,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>18.600000000000023</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>158.60000000000002</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>167.60000000000002</v>
+        <v>154</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -426,37 +426,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>159.20000000000002</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>167.60000000000002</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -464,37 +464,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>24.600000000000023</v>
+        <v>12.200000000000017</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>167.60000000000002</v>
+        <v>159.20000000000002</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>167.60000000000002</v>
+        <v>159.20000000000002</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>131</v>
@@ -511,19 +511,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>176.00000000000003</v>
+        <v>159.20000000000002</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>5</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -540,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>131</v>
@@ -549,28 +549,28 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>28.00000000000003</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>176.00000000000003</v>
+        <v>158</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>176.00000000000003</v>
+        <v>159.20000000000002</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -578,37 +578,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>27</v>
-      </c>
       <c r="F13" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>176.00000000000003</v>
+        <v>170</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -616,37 +616,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="n">
         <v>8</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>176.00000000000003</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -654,37 +654,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>31.400000000000034</v>
+        <v>10.200000000000017</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>183.40000000000003</v>
+        <v>159.20000000000002</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -692,37 +692,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -730,37 +730,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -768,34 +768,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>37.400000000000034</v>
+        <v>18.80000000000001</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>192.40000000000003</v>
+        <v>175.8</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>195</v>
+        <v>184.20000000000005</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>6</v>
+        <v>12.8</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>9</v>
@@ -806,34 +806,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>43</v>
+        <v>13.000000000000028</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>195</v>
+        <v>165.00000000000003</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>195</v>
+        <v>184.20000000000005</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>9</v>
@@ -844,34 +844,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>45.80000000000004</v>
+        <v>22.19999999999999</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>194.80000000000004</v>
+        <v>178.2</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>195</v>
+        <v>184.20000000000005</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>8.4</v>
+        <v>11.2</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>9</v>
@@ -882,37 +882,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>184.20000000000005</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J21" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -920,7 +920,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>141</v>
@@ -929,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>45.60000000000005</v>
+        <v>17.80000000000004</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>203.60000000000005</v>
+        <v>177.80000000000004</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>208.00000000000006</v>
+        <v>184.20000000000005</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>4.8</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -958,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>141</v>
@@ -967,28 +967,28 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>47</v>
+        <v>26.200000000000045</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>204</v>
+        <v>184.20000000000005</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>208.00000000000006</v>
+        <v>184.20000000000005</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -996,37 +996,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>54.00000000000006</v>
+        <v>23.200000000000017</v>
       </c>
       <c r="F24" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>182.20000000000002</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>193.39999999999998</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>208.00000000000006</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>208.00000000000006</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J24" s="1" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1034,37 +1034,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>209</v>
+        <v>193.39999999999998</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1072,37 +1072,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>35</v>
+        <v>31.399999999999977</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>215</v>
+        <v>193.39999999999998</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>218.00000000000006</v>
+        <v>193.39999999999998</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>4</v>
+        <v>11.2</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1110,37 +1110,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>37.00000000000006</v>
+        <v>18.600000000000023</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>17</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>218.00000000000006</v>
+        <v>189.60000000000002</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>218.00000000000006</v>
+        <v>196.40000000000006</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1148,37 +1148,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>40</v>
+        <v>18.000000000000057</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>216</v>
+        <v>188.00000000000006</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>227.80000000000007</v>
+        <v>196.40000000000006</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1186,37 +1186,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>39.80000000000007</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>222.80000000000007</v>
+        <v>190</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>227.80000000000007</v>
+        <v>196.40000000000006</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1224,37 +1224,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>45.80000000000007</v>
+        <v>26.400000000000063</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>16</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>227.80000000000007</v>
+        <v>196.40000000000006</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>227.80000000000007</v>
+        <v>196.40000000000006</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1262,37 +1262,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>44</v>
+        <v>8.000000000000028</v>
       </c>
       <c r="F31" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>197.00000000000003</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>197.00000000000003</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>227.80000000000007</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J31" s="1" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1300,37 +1300,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>10.600000000000023</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>49.39999999999998</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>246.40000000000006</v>
+        <v>197.00000000000003</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1338,37 +1338,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>10.600000000000023</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>50.200000000000045</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>236.80000000000007</v>
+        <v>199.20000000000005</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>246.40000000000006</v>
+        <v>215.00000000000006</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1376,37 +1376,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>10.600000000000023</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>53.39999999999998</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>16</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>237</v>
+        <v>208.60000000000005</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>246.40000000000006</v>
+        <v>215.00000000000006</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1414,37 +1414,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>10.600000000000023</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>59.80000000000004</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>246.40000000000006</v>
+        <v>201.20000000000005</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>246.40000000000006</v>
+        <v>215.00000000000006</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1452,37 +1452,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>10.600000000000023</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>58.39999999999998</v>
+        <v>12.800000000000011</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>245</v>
+        <v>215.00000000000006</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>246.40000000000006</v>
+        <v>215.00000000000006</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>5</v>
+        <v>12.8</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1490,28 +1490,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>10.600000000000023</v>
+        <v>10.200000000000045</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>63.39999999999998</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>246</v>
+        <v>210.20000000000005</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>246.40000000000006</v>
+        <v>215.00000000000006</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="n">
         <v>5</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1528,37 +1528,37 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>10.000000000000028</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>61.00000000000003</v>
+        <v>13.200000000000045</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>248.00000000000006</v>
+        <v>212.20000000000005</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>261.00000000000006</v>
+        <v>216.00000000000006</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="K38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1566,37 +1566,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>10.000000000000028</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>61.99999999999997</v>
+        <v>16.000000000000057</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>254</v>
+        <v>216.00000000000006</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>261.00000000000006</v>
+        <v>216.00000000000006</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1604,37 +1604,37 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>13.80000000000004</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>213.80000000000004</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>221.00000000000006</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>10.000000000000028</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>67.00000000000003</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>261.00000000000006</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>261.00000000000006</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J40" s="1" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1642,37 +1642,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>10.000000000000028</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>66.99999999999997</v>
+        <v>17.000000000000057</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>254</v>
+        <v>221.00000000000006</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>261.00000000000006</v>
+        <v>221.00000000000006</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1680,37 +1680,37 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>71</v>
+        <v>12.200000000000045</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>268</v>
+        <v>221.20000000000005</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>268</v>
+        <v>221.20000000000005</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -1718,37 +1718,37 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>72.40000000000006</v>
+        <v>15.000000000000057</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>266.4000000000001</v>
+        <v>217.00000000000006</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>268</v>
+        <v>221.20000000000005</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -1756,37 +1756,37 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>12</v>
+        <v>36.40000000000006</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>50</v>
+        <v>12.799999999999983</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>269</v>
+        <v>220.20000000000005</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>269</v>
+        <v>231.00000000000006</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -1794,37 +1794,37 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>9</v>
+        <v>36.40000000000006</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>54</v>
+        <v>17.19999999999999</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>268</v>
+        <v>224.60000000000005</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>271.20000000000005</v>
+        <v>231.00000000000006</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>4</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -1832,37 +1832,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>9</v>
+        <v>36.40000000000006</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>56.200000000000045</v>
+        <v>16.599999999999994</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>271.20000000000005</v>
+        <v>231.00000000000006</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>271.20000000000005</v>
+        <v>231.00000000000006</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -1870,37 +1870,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>42.80000000000007</v>
+        <v>36.40000000000006</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>33.19999999999999</v>
+        <v>16.599999999999994</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>279.00000000000006</v>
+        <v>231.00000000000006</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>284</v>
+        <v>231.00000000000006</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -1908,37 +1908,37 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>42.80000000000007</v>
+        <v>1.0000000000000284</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>35.19999999999993</v>
+        <v>19.200000000000017</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>273</v>
+        <v>232.20000000000005</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>284</v>
+        <v>234.00000000000006</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -1946,28 +1946,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>42.80000000000007</v>
+        <v>1.0000000000000284</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>39.19999999999999</v>
+        <v>22.00000000000003</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>15</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>282.00000000000006</v>
+        <v>234.00000000000006</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>284</v>
+        <v>234.00000000000006</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J49" s="1" t="n">
         <v>6</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -1984,37 +1984,37 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>42.80000000000007</v>
+        <v>15.000000000000057</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>40.19999999999993</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>284</v>
+        <v>241.00000000000006</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>284</v>
+        <v>241.00000000000006</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2022,37 +2022,37 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>73.00000000000006</v>
+        <v>32.00000000000006</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>10.800000000000011</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>17</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>288.80000000000007</v>
+        <v>239.00000000000006</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>290.6000000000001</v>
+        <v>245.40000000000006</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2060,37 +2060,37 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>73.00000000000006</v>
+        <v>32.00000000000006</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>11.999999999999943</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>283</v>
+        <v>236.00000000000006</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>290.6000000000001</v>
+        <v>245.40000000000006</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L52" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2098,37 +2098,37 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>32.00000000000006</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>5.199999999999989</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>237.20000000000005</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>245.40000000000006</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>73.00000000000006</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>15.600000000000023</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>290.6000000000001</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>290.6000000000001</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="1" t="n">
-        <v>4.8</v>
-      </c>
       <c r="K53" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2136,37 +2136,37 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>56</v>
+        <v>32.00000000000006</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>11</v>
+        <v>12.400000000000006</v>
       </c>
       <c r="F54" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>245.40000000000006</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>245.40000000000006</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J54" s="1" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2174,37 +2174,37 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>93</v>
+        <v>32.00000000000006</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>5</v>
+        <v>12.199999999999989</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>302</v>
+        <v>239.20000000000005</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>314.4</v>
+        <v>245.40000000000006</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2212,37 +2212,37 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>93</v>
+        <v>32.00000000000006</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>6</v>
+        <v>16.80000000000001</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>304</v>
+        <v>241.80000000000007</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>314.4</v>
+        <v>245.40000000000006</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>6</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2250,37 +2250,37 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>93</v>
+        <v>6.2000000000000455</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>309</v>
+        <v>247.20000000000005</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>314.4</v>
+        <v>247.20000000000005</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2288,37 +2288,37 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>93</v>
+        <v>6.2000000000000455</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>14.399999999999977</v>
+        <v>12.200000000000017</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>314.4</v>
+        <v>245.40000000000006</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>314.4</v>
+        <v>247.20000000000005</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L58" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2326,34 +2326,34 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>90.60000000000008</v>
+        <v>71.00000000000006</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>13.39999999999992</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>317</v>
+        <v>255.00000000000006</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>326.4</v>
+        <v>262.00000000000006</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J59" s="1" t="n">
         <v>8</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L59" s="1" t="n">
         <v>5</v>
@@ -2364,34 +2364,34 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>90.60000000000008</v>
+        <v>71.00000000000006</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>13.799999999999898</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>262.00000000000006</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>262.00000000000006</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="1" t="n">
-        <v>321.4</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>326.4</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J60" s="1" t="n">
-        <v>6</v>
+        <v>11.2</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" s="1" t="n">
         <v>5</v>
@@ -2402,28 +2402,28 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>90.60000000000008</v>
+        <v>71.00000000000006</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>20.39999999999992</v>
+        <v>8.199999999999989</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>321</v>
+        <v>258.20000000000005</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>326.4</v>
+        <v>262.00000000000006</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J61" s="1" t="n">
         <v>7</v>
@@ -2440,28 +2440,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>90.60000000000008</v>
+        <v>71.00000000000006</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>19.799999999999898</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>326.4</v>
+        <v>257.4000000000001</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>326.4</v>
+        <v>262.00000000000006</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J62" s="1" t="n">
         <v>6</v>
@@ -2478,37 +2478,37 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>69</v>
+        <v>20.000000000000057</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>19.19999999999999</v>
+        <v>5</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>327.2</v>
+        <v>257.00000000000006</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>335</v>
+        <v>262.4000000000001</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2516,37 +2516,37 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>69</v>
+        <v>20.000000000000057</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>20</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>335</v>
+        <v>262.4000000000001</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>335</v>
+        <v>262.4000000000001</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2554,37 +2554,37 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>106.39999999999998</v>
+        <v>83.00000000000006</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>9.199999999999989</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>337.59999999999997</v>
+        <v>282.00000000000006</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>348.59999999999997</v>
+        <v>287.00000000000006</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2592,37 +2592,37 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>106.39999999999998</v>
+        <v>83.00000000000006</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>8.600000000000023</v>
+        <v>6</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>339</v>
+        <v>287.00000000000006</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>348.59999999999997</v>
+        <v>287.00000000000006</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2630,37 +2630,37 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>106.39999999999998</v>
+        <v>83.00000000000006</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>13.600000000000023</v>
+        <v>9.800000000000011</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>338</v>
+        <v>284.80000000000007</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>348.59999999999997</v>
+        <v>287.00000000000006</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>5</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2668,37 +2668,37 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>106.39999999999998</v>
+        <v>83.00000000000006</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>15.199999999999989</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>348.59999999999997</v>
+        <v>281.00000000000006</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>348.59999999999997</v>
+        <v>287.00000000000006</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2706,37 +2706,37 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>85</v>
+        <v>104.00000000000006</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>352</v>
+        <v>308.00000000000006</v>
       </c>
       <c r="H69" s="1" t="n">
-        <v>352</v>
+        <v>316.20000000000005</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J69" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2744,37 +2744,37 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>139.59999999999997</v>
+        <v>104.00000000000006</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>309.00000000000006</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>316.20000000000005</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="1" t="n">
-        <v>370.59999999999997</v>
-      </c>
-      <c r="H70" s="1" t="n">
-        <v>378.59999999999997</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="J70" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K70" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2782,37 +2782,37 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="D71" s="1" t="n">
-        <v>139.59999999999997</v>
+        <v>104.00000000000006</v>
       </c>
       <c r="E71" s="1" t="n">
-        <v>6</v>
+        <v>11.199999999999989</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>370.59999999999997</v>
+        <v>316.20000000000005</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>378.59999999999997</v>
+        <v>316.20000000000005</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J71" s="1" t="n">
-        <v>6</v>
+        <v>11.2</v>
       </c>
       <c r="K71" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2820,37 +2820,37 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>139.59999999999997</v>
+        <v>128.20000000000005</v>
       </c>
       <c r="E72" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>378.59999999999997</v>
+        <v>334.20000000000005</v>
       </c>
       <c r="H72" s="1" t="n">
-        <v>378.59999999999997</v>
+        <v>340.80000000000007</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J72" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2858,37 +2858,341 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>139.59999999999997</v>
+        <v>128.20000000000005</v>
       </c>
       <c r="E73" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>336.20000000000005</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>340.80000000000007</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>128.20000000000005</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>5.600000000000023</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>340.80000000000007</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>340.80000000000007</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>128.20000000000005</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>11.199999999999989</v>
+      </c>
+      <c r="F75" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F73" s="1" t="n">
+      <c r="G75" s="1" t="n">
+        <v>339.40000000000003</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>340.80000000000007</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>150.80000000000007</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>364.80000000000007</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>364.80000000000007</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>150.80000000000007</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>8.399999999999977</v>
+      </c>
+      <c r="F77" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="G73" s="1" t="n">
-        <v>375.59999999999997</v>
-      </c>
-      <c r="H73" s="1" t="n">
-        <v>378.59999999999997</v>
-      </c>
-      <c r="I73" s="1" t="s">
+      <c r="G77" s="1" t="n">
+        <v>364.20000000000005</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>364.80000000000007</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J73" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K73" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" s="1" t="n">
-        <v>7</v>
+      <c r="J77" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>150.80000000000007</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>364.80000000000007</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>364.80000000000007</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>171.80000000000007</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>389.80000000000007</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>389.80000000000007</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>171.80000000000007</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>389.80000000000007</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>389.80000000000007</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>171.80000000000007</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>9.800000000000011</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>388.6000000000001</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>389.80000000000007</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>9.799999999999999</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/newexcel.xlsx
+++ b/newexcel.xlsx
@@ -49,13 +49,10 @@
     <t>Tables</t>
   </si>
   <si>
-    <t>Chicken</t>
+    <t>Beef</t>
   </si>
   <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>Beef</t>
+    <t>Fish</t>
   </si>
   <si>
     <t>Lamb</t>
@@ -64,7 +61,10 @@
     <t>Prawns</t>
   </si>
   <si>
-    <t>Fish</t>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -160,37 +160,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>148</v>
+        <v>161.6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -198,37 +198,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>4.800000000000011</v>
+        <v>9.599999999999994</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>142.8</v>
+        <v>161.6</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>148</v>
+        <v>161.6</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -236,10 +236,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
@@ -251,13 +251,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>148</v>
+        <v>161.6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>7</v>
@@ -266,7 +266,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -274,37 +274,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>6.400000000000006</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>16</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>146.4</v>
+        <v>158</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>148</v>
+        <v>161.6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -312,37 +312,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>6.800000000000011</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>161.6</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J6" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -350,37 +350,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>10.400000000000006</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>151.4</v>
+        <v>158</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>154</v>
+        <v>161.6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="n">
         <v>8</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -388,37 +388,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>8</v>
+        <v>10.599999999999994</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>154</v>
+        <v>169.6</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>154</v>
+        <v>169.6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -426,37 +426,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>159.20000000000002</v>
+        <v>169.6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -464,37 +464,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>12.200000000000017</v>
+        <v>12.199999999999989</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>159.20000000000002</v>
+        <v>166.2</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>159.20000000000002</v>
+        <v>173</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>8.4</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -502,37 +502,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>10</v>
+        <v>8.599999999999994</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>151</v>
+        <v>166.6</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>159.20000000000002</v>
+        <v>173</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -540,37 +540,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>159.20000000000002</v>
+        <v>173</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -578,37 +578,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="K13" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -616,37 +616,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>4</v>
+        <v>12.8</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -654,37 +654,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>10.200000000000017</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>159.20000000000002</v>
+        <v>187</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -692,37 +692,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>13</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>170</v>
+        <v>195.4</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -730,37 +730,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>14</v>
-      </c>
       <c r="F17" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -768,31 +768,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>18.80000000000001</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>175.8</v>
+        <v>195.4</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>184.20000000000005</v>
+        <v>197</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>12.8</v>
+        <v>6.4</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>3</v>
@@ -806,34 +806,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>13.000000000000028</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>165.00000000000003</v>
+        <v>197</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>184.20000000000005</v>
+        <v>197</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>9</v>
@@ -844,34 +844,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>22.19999999999999</v>
+        <v>12.800000000000011</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>178.2</v>
+        <v>192.8</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>184.20000000000005</v>
+        <v>197</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>11.2</v>
+        <v>6.4</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>9</v>
@@ -882,37 +882,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>20</v>
+        <v>12.599999999999994</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>12</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>173</v>
+        <v>194.6</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>184.20000000000005</v>
+        <v>203</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -920,37 +920,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>17.80000000000004</v>
+        <v>16.80000000000001</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>177.80000000000004</v>
+        <v>196.8</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>184.20000000000005</v>
+        <v>203</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -958,37 +958,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>26.200000000000045</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>184.20000000000005</v>
+        <v>203</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>184.20000000000005</v>
+        <v>203</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -996,37 +996,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>23.200000000000017</v>
+        <v>21.400000000000006</v>
       </c>
       <c r="F24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <v>182.20000000000002</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>193.39999999999998</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J24" s="1" t="n">
-        <v>6.4</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1034,37 +1034,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>26</v>
+        <v>18.200000000000017</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>183</v>
+        <v>203.20000000000002</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>193.39999999999998</v>
+        <v>209.4</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1072,37 +1072,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>31.399999999999977</v>
+        <v>18</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>193.39999999999998</v>
+        <v>207</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>193.39999999999998</v>
+        <v>209.4</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1110,37 +1110,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>18.600000000000023</v>
+        <v>25.400000000000006</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>189.60000000000002</v>
+        <v>208.4</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>196.40000000000006</v>
+        <v>209.4</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1148,37 +1148,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>18.000000000000057</v>
+        <v>24.200000000000017</v>
       </c>
       <c r="F28" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>215.20000000000002</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>215.20000000000002</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <v>188.00000000000006</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>196.40000000000006</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J28" s="1" t="n">
-        <v>4.8</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1186,28 +1186,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>196.40000000000006</v>
+        <v>215.20000000000002</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>5</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1224,37 +1224,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>26.400000000000063</v>
+        <v>24.400000000000006</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>196.40000000000006</v>
+        <v>212.4</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>196.40000000000006</v>
+        <v>215.20000000000002</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1262,28 +1262,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>8.000000000000028</v>
+        <v>25.600000000000023</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>197.00000000000003</v>
+        <v>214.60000000000002</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>197.00000000000003</v>
+        <v>215.20000000000002</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>6.4</v>
@@ -1292,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1300,37 +1300,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>197.00000000000003</v>
+        <v>216.20000000000002</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1338,37 +1338,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>10.200000000000045</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>5</v>
+        <v>21.200000000000017</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>199.20000000000005</v>
+        <v>216.20000000000002</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>215.00000000000006</v>
+        <v>216.20000000000002</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1376,37 +1376,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>10.200000000000045</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>8.400000000000006</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>208.60000000000005</v>
+        <v>222</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>215.00000000000006</v>
+        <v>224.20000000000002</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1414,28 +1414,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>10.200000000000045</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>7</v>
+        <v>17.200000000000017</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>201.20000000000005</v>
+        <v>224.20000000000002</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>215.00000000000006</v>
+        <v>224.20000000000002</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>7</v>
@@ -1444,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1452,34 +1452,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>10.200000000000045</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>12.800000000000011</v>
+        <v>11.400000000000006</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>215.00000000000006</v>
+        <v>225.4</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>215.00000000000006</v>
+        <v>230.20000000000002</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>12.8</v>
+        <v>6</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1" t="n">
         <v>9</v>
@@ -1490,34 +1490,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>17.80000000000001</v>
+      </c>
+      <c r="F37" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>10.200000000000045</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F37" s="1" t="n">
+      <c r="G37" s="1" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>230.20000000000002</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <v>210.20000000000005</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>215.00000000000006</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J37" s="1" t="n">
-        <v>5</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" s="1" t="n">
         <v>9</v>
@@ -1528,37 +1528,37 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>13.200000000000045</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>230.20000000000002</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="1" t="n">
-        <v>212.20000000000005</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>216.00000000000006</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J38" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1566,37 +1566,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>16.000000000000057</v>
+        <v>16.200000000000017</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>216.00000000000006</v>
+        <v>230.20000000000002</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>216.00000000000006</v>
+        <v>230.20000000000002</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1604,37 +1604,37 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>13.80000000000004</v>
+        <v>16</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>213.80000000000004</v>
+        <v>229</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>221.00000000000006</v>
+        <v>230.20000000000002</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1645,34 +1645,34 @@
         <v>19</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0</v>
+        <v>4.400000000000006</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>17.000000000000057</v>
+        <v>5.599999999999994</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>221.00000000000006</v>
+        <v>228</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>221.00000000000006</v>
+        <v>241.60000000000002</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J41" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="K41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1680,37 +1680,37 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0</v>
+        <v>4.400000000000006</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>12.200000000000045</v>
+        <v>8.599999999999994</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>19</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>221.20000000000005</v>
+        <v>237</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>221.20000000000005</v>
+        <v>241.60000000000002</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -1718,37 +1718,37 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0</v>
+        <v>4.400000000000006</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>15.000000000000057</v>
+        <v>12.200000000000017</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>217.00000000000006</v>
+        <v>236.60000000000002</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>221.20000000000005</v>
+        <v>241.60000000000002</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -1756,37 +1756,37 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>36.40000000000006</v>
+        <v>4.400000000000006</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>12.799999999999983</v>
+        <v>18.200000000000017</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>220.20000000000005</v>
+        <v>241.60000000000002</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>231.00000000000006</v>
+        <v>241.60000000000002</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>7</v>
+        <v>12.8</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -1794,37 +1794,37 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>36.40000000000006</v>
+        <v>8.200000000000017</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>17.19999999999999</v>
+        <v>11.199999999999989</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>224.60000000000005</v>
+        <v>240.4</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>231.00000000000006</v>
+        <v>249</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>9.799999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -1832,37 +1832,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>36.40000000000006</v>
+        <v>8.200000000000017</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>16.599999999999994</v>
+        <v>9.799999999999983</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>231.00000000000006</v>
+        <v>238</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>231.00000000000006</v>
+        <v>249</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J46" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -1870,37 +1870,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>36.40000000000006</v>
+        <v>8.200000000000017</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>16.599999999999994</v>
+        <v>14.800000000000011</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>231.00000000000006</v>
+        <v>248.00000000000003</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>231.00000000000006</v>
+        <v>249</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="K47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -1908,28 +1908,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>1.0000000000000284</v>
+        <v>8.200000000000017</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>19.200000000000017</v>
+        <v>16.799999999999983</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>232.20000000000005</v>
+        <v>249</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>234.00000000000006</v>
+        <v>249</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J48" s="1" t="n">
         <v>7</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -1946,37 +1946,37 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>1.0000000000000284</v>
+        <v>21.200000000000017</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>22.00000000000003</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>234.00000000000006</v>
+        <v>250.20000000000002</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>234.00000000000006</v>
+        <v>250.20000000000002</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>6</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -1984,37 +1984,37 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>15.000000000000057</v>
+        <v>21.200000000000017</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>10</v>
+        <v>17.80000000000001</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>241.00000000000006</v>
+        <v>249.00000000000003</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>241.00000000000006</v>
+        <v>250.20000000000002</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2022,37 +2022,37 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>32.00000000000006</v>
+        <v>29.200000000000017</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>7</v>
+        <v>14.200000000000017</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>239.00000000000006</v>
+        <v>256.40000000000003</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>245.40000000000006</v>
+        <v>256.40000000000003</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2060,34 +2060,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>32.00000000000006</v>
+        <v>48.20000000000002</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>8</v>
+        <v>5.799999999999983</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>236.00000000000006</v>
+        <v>254</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>245.40000000000006</v>
+        <v>264.80000000000007</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1" t="n">
         <v>9</v>
@@ -2098,34 +2098,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>32.00000000000006</v>
+        <v>48.20000000000002</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>5.199999999999989</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>237.20000000000005</v>
+        <v>260.20000000000005</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>245.40000000000006</v>
+        <v>264.80000000000007</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>4</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="K53" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L53" s="1" t="n">
         <v>9</v>
@@ -2136,34 +2136,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>32.00000000000006</v>
+        <v>48.20000000000002</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>12.400000000000006</v>
+        <v>13.799999999999983</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>245.40000000000006</v>
+        <v>261</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>245.40000000000006</v>
+        <v>264.80000000000007</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1" t="n">
         <v>9</v>
@@ -2174,34 +2174,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>32.00000000000006</v>
+        <v>48.20000000000002</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>12.199999999999989</v>
+        <v>15.800000000000011</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>12</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>239.20000000000005</v>
+        <v>258</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>245.40000000000006</v>
+        <v>264.80000000000007</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>7</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55" s="1" t="n">
         <v>9</v>
@@ -2212,34 +2212,34 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>32.00000000000006</v>
+        <v>48.20000000000002</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>16.80000000000001</v>
+        <v>16.600000000000023</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>241.80000000000007</v>
+        <v>264.80000000000007</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>245.40000000000006</v>
+        <v>264.80000000000007</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>9.799999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56" s="1" t="n">
         <v>9</v>
@@ -2250,37 +2250,37 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="D57" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>6.2000000000000455</v>
-      </c>
       <c r="E57" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>247.20000000000005</v>
+        <v>271</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>247.20000000000005</v>
+        <v>273.4</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2288,37 +2288,37 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="D58" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C58" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>6.2000000000000455</v>
-      </c>
       <c r="E58" s="1" t="n">
-        <v>12.200000000000017</v>
+        <v>8.399999999999977</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>245.40000000000006</v>
+        <v>273.4</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>247.20000000000005</v>
+        <v>273.4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L58" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2326,37 +2326,37 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>71.00000000000006</v>
+        <v>39</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>255.00000000000006</v>
+        <v>267</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>262.00000000000006</v>
+        <v>273.4</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L59" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2364,37 +2364,37 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>71.00000000000006</v>
+        <v>39</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>12</v>
+        <v>11.199999999999989</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>262.00000000000006</v>
+        <v>273.2</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>262.00000000000006</v>
+        <v>273.4</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>11.2</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="K60" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L60" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2402,37 +2402,37 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>71.00000000000006</v>
+        <v>53.20000000000002</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>8.199999999999989</v>
+        <v>11.400000000000006</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>258.20000000000005</v>
+        <v>276.6</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>262.00000000000006</v>
+        <v>276.6</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2440,37 +2440,37 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>71.00000000000006</v>
+        <v>53.20000000000002</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>8.400000000000006</v>
+        <v>13.799999999999983</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>257.4000000000001</v>
+        <v>275</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>262.00000000000006</v>
+        <v>276.6</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K62" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2478,34 +2478,34 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>20.000000000000057</v>
+        <v>40.400000000000034</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>5</v>
+        <v>5.7999999999999545</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>257.00000000000006</v>
+        <v>272.2</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>262.4000000000001</v>
+        <v>281.2</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K63" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1" t="n">
         <v>3</v>
@@ -2516,34 +2516,34 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>20.000000000000057</v>
+        <v>40.400000000000034</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>8.400000000000006</v>
+        <v>11.799999999999955</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>13</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>262.4000000000001</v>
+        <v>281.2</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>262.4000000000001</v>
+        <v>281.2</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="K64" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" s="1" t="n">
         <v>3</v>
@@ -2554,25 +2554,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>83.00000000000006</v>
+        <v>75.80000000000007</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>282.00000000000006</v>
+        <v>283.80000000000007</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>287.00000000000006</v>
+        <v>292.6000000000001</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>14</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2592,28 +2592,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>83.00000000000006</v>
+        <v>75.80000000000007</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>287.00000000000006</v>
+        <v>280.80000000000007</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>287.00000000000006</v>
+        <v>292.6000000000001</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J66" s="1" t="n">
         <v>6</v>
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2630,28 +2630,28 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>83.00000000000006</v>
+        <v>75.80000000000007</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>9.800000000000011</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>284.80000000000007</v>
+        <v>292.6000000000001</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>287.00000000000006</v>
+        <v>292.6000000000001</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J67" s="1" t="n">
         <v>9.799999999999999</v>
@@ -2660,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="L67" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2668,28 +2668,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>83.00000000000006</v>
+        <v>75.80000000000007</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>8</v>
+        <v>11.39999999999992</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>281.00000000000006</v>
+        <v>290.2</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>287.00000000000006</v>
+        <v>292.6000000000001</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J68" s="1" t="n">
         <v>8</v>
@@ -2698,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2706,28 +2706,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>104.00000000000006</v>
+        <v>75.80000000000007</v>
       </c>
       <c r="E69" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>286.80000000000007</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>292.6000000000001</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>308.00000000000006</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <v>316.20000000000005</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="J69" s="1" t="n">
         <v>4</v>
@@ -2736,463 +2736,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>104.00000000000006</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F70" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <v>309.00000000000006</v>
-      </c>
-      <c r="H70" s="1" t="n">
-        <v>316.20000000000005</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K70" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>104.00000000000006</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>11.199999999999989</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>316.20000000000005</v>
-      </c>
-      <c r="H71" s="1" t="n">
-        <v>316.20000000000005</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="1" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K71" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L71" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>128.20000000000005</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F72" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="G72" s="1" t="n">
-        <v>334.20000000000005</v>
-      </c>
-      <c r="H72" s="1" t="n">
-        <v>340.80000000000007</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K72" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="D73" s="1" t="n">
-        <v>128.20000000000005</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F73" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G73" s="1" t="n">
-        <v>336.20000000000005</v>
-      </c>
-      <c r="H73" s="1" t="n">
-        <v>340.80000000000007</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K73" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="D74" s="1" t="n">
-        <v>128.20000000000005</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>5.600000000000023</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="G74" s="1" t="n">
-        <v>340.80000000000007</v>
-      </c>
-      <c r="H74" s="1" t="n">
-        <v>340.80000000000007</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J74" s="1" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K74" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L74" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="D75" s="1" t="n">
-        <v>128.20000000000005</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>11.199999999999989</v>
-      </c>
-      <c r="F75" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G75" s="1" t="n">
-        <v>339.40000000000003</v>
-      </c>
-      <c r="H75" s="1" t="n">
-        <v>340.80000000000007</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="1" t="n">
-        <v>11.200000000000001</v>
-      </c>
-      <c r="K75" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L75" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>150.80000000000007</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="G76" s="1" t="n">
-        <v>364.80000000000007</v>
-      </c>
-      <c r="H76" s="1" t="n">
-        <v>364.80000000000007</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>150.80000000000007</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>8.399999999999977</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G77" s="1" t="n">
-        <v>364.20000000000005</v>
-      </c>
-      <c r="H77" s="1" t="n">
-        <v>364.80000000000007</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="1" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K77" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>150.80000000000007</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="G78" s="1" t="n">
-        <v>364.80000000000007</v>
-      </c>
-      <c r="H78" s="1" t="n">
-        <v>364.80000000000007</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J78" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K78" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L78" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>171.80000000000007</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F79" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G79" s="1" t="n">
-        <v>389.80000000000007</v>
-      </c>
-      <c r="H79" s="1" t="n">
-        <v>389.80000000000007</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K79" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>171.80000000000007</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="F80" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="G80" s="1" t="n">
-        <v>389.80000000000007</v>
-      </c>
-      <c r="H80" s="1" t="n">
-        <v>389.80000000000007</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>171.80000000000007</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>9.800000000000011</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G81" s="1" t="n">
-        <v>388.6000000000001</v>
-      </c>
-      <c r="H81" s="1" t="n">
-        <v>389.80000000000007</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="1" t="n">
-        <v>9.799999999999999</v>
-      </c>
-      <c r="K81" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L81" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/newexcel.xlsx
+++ b/newexcel.xlsx
@@ -49,13 +49,13 @@
     <t>Tables</t>
   </si>
   <si>
-    <t>Beef</t>
-  </si>
-  <si>
     <t>Fish</t>
   </si>
   <si>
     <t>Lamb</t>
+  </si>
+  <si>
+    <t>Beef</t>
   </si>
   <si>
     <t>Prawns</t>
@@ -111,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -160,37 +160,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>161.6</v>
+        <v>116.6</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -198,10 +198,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
@@ -213,13 +213,13 @@
         <v>18</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>161.6</v>
+        <v>116.6</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>161.6</v>
+        <v>116.6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>9.6</v>
@@ -228,7 +228,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -236,10 +236,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
@@ -248,16 +248,16 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>161.6</v>
+        <v>116.6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>7</v>
@@ -266,7 +266,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -274,10 +274,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
@@ -286,13 +286,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>161.6</v>
+        <v>116.6</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>14</v>
@@ -304,7 +304,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -312,28 +312,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>161.6</v>
+        <v>181</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>8</v>
@@ -350,34 +350,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>14</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>158</v>
+        <v>174.4</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>161.6</v>
+        <v>181</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>8</v>
@@ -388,37 +388,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>10.599999999999994</v>
+        <v>9.800000000000011</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>169.6</v>
+        <v>175.8</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>169.6</v>
+        <v>181</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>6</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -426,37 +426,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>169.6</v>
+        <v>181</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -464,37 +464,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>12.199999999999989</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>166.2</v>
+        <v>180</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>11.200000000000001</v>
+        <v>8</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -502,37 +502,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>8.599999999999994</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>166.6</v>
+        <v>181</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -540,10 +540,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>0</v>
@@ -555,22 +555,22 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>173</v>
+        <v>189.4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -578,37 +578,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>14</v>
+        <v>9.400000000000006</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>173</v>
+        <v>189.4</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>173</v>
+        <v>189.4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -616,37 +616,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>17</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>183</v>
+        <v>180.4</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>12.8</v>
+        <v>8.4</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -654,37 +654,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>4</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>187</v>
+        <v>175.4</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -692,37 +692,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>8.400000000000006</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="J16" s="1" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -730,37 +730,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -768,37 +768,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>6.400000000000006</v>
+        <v>14.199999999999989</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>195.4</v>
+        <v>194.2</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>197</v>
+        <v>194.2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>6.4</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -806,10 +806,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>9</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -844,37 +844,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>12.800000000000011</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>192.8</v>
+        <v>203</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -882,37 +882,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>12.599999999999994</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>194.6</v>
+        <v>194</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -920,37 +920,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>16.80000000000001</v>
+        <v>8.400000000000006</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>196.8</v>
+        <v>193.4</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -958,28 +958,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>5</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -996,7 +996,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>171</v>
@@ -1005,25 +1005,25 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>21.400000000000006</v>
+        <v>19</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>209.4</v>
+        <v>206</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>209.4</v>
+        <v>206</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>9.799999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" s="1" t="n">
         <v>6</v>
@@ -1034,37 +1034,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>11.599999999999994</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>18.200000000000017</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>14</v>
-      </c>
       <c r="G25" s="1" t="n">
-        <v>203.20000000000002</v>
+        <v>193.6</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>209.4</v>
+        <v>209.6</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1072,28 +1072,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>209.4</v>
+        <v>209.6</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="n">
         <v>5</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1110,28 +1110,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>25.400000000000006</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>208.4</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>209.4</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>9.6</v>
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1148,31 +1148,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>24.200000000000017</v>
+        <v>18.599999999999994</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>215.20000000000002</v>
+        <v>209.6</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>215.20000000000002</v>
+        <v>209.6</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>9.799999999999999</v>
+        <v>7</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>2</v>
@@ -1186,37 +1186,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>15</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>214</v>
+        <v>215.4</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>215.20000000000002</v>
+        <v>215.4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>5</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1224,37 +1224,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>24.400000000000006</v>
+        <v>8.599999999999994</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>212.4</v>
+        <v>215</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>215.20000000000002</v>
+        <v>215.4</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1262,37 +1262,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>25.600000000000023</v>
+        <v>13.800000000000011</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>214.60000000000002</v>
+        <v>208.8</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>215.20000000000002</v>
+        <v>216.2</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="K31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1300,37 +1300,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>18</v>
+        <v>21.19999999999999</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>15</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>209</v>
+        <v>216.2</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>216.20000000000002</v>
+        <v>216.2</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>5</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1338,37 +1338,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>21.200000000000017</v>
+        <v>8.600000000000023</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>216.20000000000002</v>
+        <v>216.60000000000002</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>216.20000000000002</v>
+        <v>226.00000000000003</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1376,28 +1376,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>224.20000000000002</v>
+        <v>226.00000000000003</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>5</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1414,37 +1414,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>17.200000000000017</v>
+        <v>17.00000000000003</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>224.20000000000002</v>
+        <v>226.00000000000003</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>224.20000000000002</v>
+        <v>226.00000000000003</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1452,34 +1452,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>11.400000000000006</v>
+        <v>17.400000000000006</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>225.4</v>
+        <v>217.4</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>230.20000000000002</v>
+        <v>226.00000000000003</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="1" t="n">
         <v>9</v>
@@ -1490,31 +1490,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>17.80000000000001</v>
+        <v>17.599999999999994</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>228.8</v>
+        <v>218.6</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>230.20000000000002</v>
+        <v>226.00000000000003</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>11.200000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>3</v>
@@ -1528,31 +1528,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>230.20000000000002</v>
+        <v>226.00000000000003</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>0</v>
@@ -1566,37 +1566,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>16.200000000000017</v>
+        <v>24</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>230.20000000000002</v>
+        <v>224</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>230.20000000000002</v>
+        <v>236.20000000000002</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1604,37 +1604,37 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>16</v>
+        <v>21.80000000000004</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>229</v>
+        <v>221.80000000000004</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>230.20000000000002</v>
+        <v>236.20000000000002</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1642,37 +1642,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>27.200000000000017</v>
+      </c>
+      <c r="F41" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>4.400000000000006</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>5.599999999999994</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>13</v>
-      </c>
       <c r="G41" s="1" t="n">
-        <v>228</v>
+        <v>236.20000000000002</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>241.60000000000002</v>
+        <v>236.20000000000002</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>5.6</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>2</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1680,34 +1680,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>4.400000000000006</v>
+        <v>22</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>8.599999999999994</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>241.60000000000002</v>
+        <v>240</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L42" s="1" t="n">
         <v>6</v>
@@ -1718,25 +1718,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>4.400000000000006</v>
+        <v>22</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>12.200000000000017</v>
+        <v>14.200000000000045</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>236.60000000000002</v>
+        <v>237.20000000000005</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>241.60000000000002</v>
+        <v>240</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>16</v>
@@ -1756,34 +1756,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>4.400000000000006</v>
+        <v>22</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>18.200000000000017</v>
+        <v>15</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>241.60000000000002</v>
+        <v>236</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>241.60000000000002</v>
+        <v>240</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>12.8</v>
+        <v>7</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1" t="n">
         <v>6</v>
@@ -1794,37 +1794,37 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>8.200000000000017</v>
+        <v>22</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>11.199999999999989</v>
+        <v>16</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>240.4</v>
+        <v>240</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>11.2</v>
+        <v>8</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -1832,34 +1832,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>8.200000000000017</v>
+        <v>24.599999999999994</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>9.799999999999983</v>
+        <v>14.600000000000023</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>238</v>
+        <v>234.20000000000002</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>249</v>
+        <v>246.60000000000005</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J46" s="1" t="n">
         <v>7</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46" s="1" t="n">
         <v>7</v>
@@ -1870,28 +1870,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>8.200000000000017</v>
+        <v>24.599999999999994</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>14.800000000000011</v>
+        <v>19.000000000000057</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>248.00000000000003</v>
+        <v>246.60000000000005</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>249</v>
+        <v>246.60000000000005</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J47" s="1" t="n">
         <v>8.4</v>
@@ -1908,31 +1908,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>8.200000000000017</v>
+        <v>24.599999999999994</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>16.799999999999983</v>
+        <v>15.400000000000006</v>
       </c>
       <c r="F48" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>246.60000000000005</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="J48" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>0</v>
@@ -1946,37 +1946,37 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>21.200000000000017</v>
+        <v>10.199999999999989</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>20</v>
+        <v>13.800000000000011</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>250.20000000000002</v>
+        <v>241</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>250.20000000000002</v>
+        <v>247.20000000000002</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>9.799999999999999</v>
+        <v>8</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -1984,37 +1984,37 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>21.200000000000017</v>
+        <v>10.199999999999989</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>17.80000000000001</v>
+        <v>15.000000000000028</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>249.00000000000003</v>
+        <v>247.20000000000002</v>
       </c>
       <c r="H50" s="1" t="n">
-        <v>250.20000000000002</v>
+        <v>247.20000000000002</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="L50" s="1" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2022,37 +2022,37 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>29.200000000000017</v>
+        <v>33.00000000000003</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>14.200000000000017</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>256.40000000000003</v>
+        <v>253.00000000000003</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>256.40000000000003</v>
+        <v>255.00000000000006</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J51" s="1" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="K51" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2060,34 +2060,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>48.20000000000002</v>
+        <v>33.00000000000003</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>5.799999999999983</v>
+        <v>11.000000000000028</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>254</v>
+        <v>253.00000000000006</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>264.80000000000007</v>
+        <v>255.00000000000006</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J52" s="1" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1" t="n">
         <v>9</v>
@@ -2098,31 +2098,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>48.20000000000002</v>
+        <v>33.00000000000003</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>15</v>
+        <v>11.999999999999972</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>260.20000000000005</v>
+        <v>252</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>264.80000000000007</v>
+        <v>255.00000000000006</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J53" s="1" t="n">
-        <v>11.200000000000001</v>
+        <v>8</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>3</v>
@@ -2136,34 +2136,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>48.20000000000002</v>
+        <v>33.00000000000003</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>13.799999999999983</v>
+        <v>12.199999999999989</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>261</v>
+        <v>248.20000000000002</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>264.80000000000007</v>
+        <v>255.00000000000006</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54" s="1" t="n">
         <v>9</v>
@@ -2174,34 +2174,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>48.20000000000002</v>
+        <v>33.00000000000003</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>15.800000000000011</v>
+        <v>13</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>258</v>
+        <v>250.00000000000003</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>264.80000000000007</v>
+        <v>255.00000000000006</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>9.799999999999999</v>
+        <v>5</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1" t="n">
         <v>9</v>
@@ -2212,31 +2212,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>33.00000000000003</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>17.00000000000003</v>
+      </c>
+      <c r="F56" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C56" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>48.20000000000002</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>16.600000000000023</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>18</v>
-      </c>
       <c r="G56" s="1" t="n">
-        <v>264.80000000000007</v>
+        <v>255.00000000000006</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>264.80000000000007</v>
+        <v>255.00000000000006</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>1</v>
@@ -2250,25 +2250,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>39</v>
+        <v>46.20000000000002</v>
       </c>
       <c r="E57" s="1" t="n">
-        <v>8</v>
+        <v>9.799999999999983</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>273.4</v>
+        <v>261</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>13</v>
@@ -2277,10 +2277,10 @@
         <v>8</v>
       </c>
       <c r="K57" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L57" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2288,37 +2288,37 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>39</v>
+        <v>46.20000000000002</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>8.399999999999977</v>
+        <v>11.800000000000011</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>273.4</v>
+        <v>258</v>
       </c>
       <c r="H58" s="1" t="n">
-        <v>273.4</v>
+        <v>261</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J58" s="1" t="n">
-        <v>8.4</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="K58" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2326,37 +2326,37 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>39</v>
+        <v>46.20000000000002</v>
       </c>
       <c r="E59" s="1" t="n">
-        <v>7</v>
+        <v>7.800000000000011</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H59" s="1" t="n">
-        <v>273.4</v>
+        <v>261</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J59" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K59" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L59" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2364,37 +2364,37 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>39</v>
+        <v>41.20000000000002</v>
       </c>
       <c r="E60" s="1" t="n">
-        <v>11.199999999999989</v>
+        <v>12.400000000000006</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>273.2</v>
+        <v>270.6</v>
       </c>
       <c r="H60" s="1" t="n">
-        <v>273.4</v>
+        <v>272.20000000000005</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J60" s="1" t="n">
-        <v>11.200000000000001</v>
+        <v>8</v>
       </c>
       <c r="K60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2402,37 +2402,37 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D61" s="1" t="n">
-        <v>53.20000000000002</v>
+        <v>41.20000000000002</v>
       </c>
       <c r="E61" s="1" t="n">
-        <v>11.400000000000006</v>
+        <v>15.000000000000028</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>276.6</v>
+        <v>272.20000000000005</v>
       </c>
       <c r="H61" s="1" t="n">
-        <v>276.6</v>
+        <v>272.20000000000005</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J61" s="1" t="n">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2440,37 +2440,37 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>53.20000000000002</v>
+        <v>41.60000000000005</v>
       </c>
       <c r="E62" s="1" t="n">
-        <v>13.799999999999983</v>
+        <v>5</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>275</v>
+        <v>268.6</v>
       </c>
       <c r="H62" s="1" t="n">
-        <v>276.6</v>
+        <v>274</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J62" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K62" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L62" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2478,37 +2478,37 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>40.400000000000034</v>
+        <v>41.60000000000005</v>
       </c>
       <c r="E63" s="1" t="n">
-        <v>5.7999999999999545</v>
+        <v>6</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>272.2</v>
+        <v>270.6</v>
       </c>
       <c r="H63" s="1" t="n">
-        <v>281.2</v>
+        <v>274</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J63" s="1" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L63" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2516,37 +2516,37 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>40.400000000000034</v>
+        <v>41.60000000000005</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>11.799999999999955</v>
+        <v>6.400000000000006</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>281.2</v>
+        <v>269.00000000000006</v>
       </c>
       <c r="H64" s="1" t="n">
-        <v>281.2</v>
+        <v>274</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J64" s="1" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>3</v>
       </c>
       <c r="L64" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2554,37 +2554,37 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>75.80000000000007</v>
+        <v>41.60000000000005</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>5</v>
+        <v>8.399999999999977</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>283.80000000000007</v>
+        <v>274</v>
       </c>
       <c r="H65" s="1" t="n">
-        <v>292.6000000000001</v>
+        <v>274</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J65" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K65" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2592,34 +2592,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>75.80000000000007</v>
+        <v>54.00000000000006</v>
       </c>
       <c r="E66" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>280.80000000000007</v>
+        <v>272.00000000000006</v>
       </c>
       <c r="H66" s="1" t="n">
-        <v>292.6000000000001</v>
+        <v>287.00000000000006</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K66" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="1" t="n">
         <v>9</v>
@@ -2630,34 +2630,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>75.80000000000007</v>
+        <v>54.00000000000006</v>
       </c>
       <c r="E67" s="1" t="n">
-        <v>9.800000000000011</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>292.6000000000001</v>
+        <v>280.00000000000006</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>292.6000000000001</v>
+        <v>287.00000000000006</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>9.799999999999999</v>
+        <v>8</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L67" s="1" t="n">
         <v>9</v>
@@ -2668,34 +2668,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D68" s="1" t="n">
-        <v>75.80000000000007</v>
+        <v>54.00000000000006</v>
       </c>
       <c r="E68" s="1" t="n">
-        <v>11.39999999999992</v>
+        <v>11.599999999999966</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>290.2</v>
+        <v>278.6</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>292.6000000000001</v>
+        <v>287.00000000000006</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L68" s="1" t="n">
         <v>9</v>
@@ -2706,36 +2706,834 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D69" s="1" t="n">
-        <v>75.80000000000007</v>
+        <v>54.00000000000006</v>
       </c>
       <c r="E69" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>287.00000000000006</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>287.00000000000006</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F69" s="1" t="n">
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>54.00000000000006</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>13.199999999999989</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>282.20000000000005</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>287.00000000000006</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>54.00000000000006</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>14.399999999999977</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>285.40000000000003</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>287.00000000000006</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>57.200000000000045</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>291.20000000000005</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>291.20000000000005</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>8.399999999999977</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>5.600000000000023</v>
+      </c>
+      <c r="F74" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="G69" s="1" t="n">
-        <v>286.80000000000007</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <v>292.6000000000001</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="G74" s="1" t="n">
+        <v>292.6</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="1" t="n">
+      <c r="J74" s="1" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>6.399999999999977</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>295.4</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>10.200000000000045</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>297.20000000000005</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>83.00000000000006</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>306.00000000000006</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>313.40000000000003</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>83.00000000000006</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>8.399999999999977</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>305.40000000000003</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>313.40000000000003</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>83.00000000000006</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>11.199999999999989</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>311.20000000000005</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>313.40000000000003</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>83.00000000000006</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>307.00000000000006</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>313.40000000000003</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>83.00000000000006</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>310.00000000000006</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>313.40000000000003</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>83.00000000000006</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>14.399999999999977</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>313.40000000000003</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>313.40000000000003</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>93.39999999999998</v>
+      </c>
+      <c r="E83" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="K69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="1" t="n">
+      <c r="F83" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>322.4</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>328.79999999999995</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>93.39999999999998</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>8.399999999999977</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>328.79999999999995</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>328.79999999999995</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>93.39999999999998</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>326.4</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>328.79999999999995</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>101.40000000000003</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>332.40000000000003</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>341.00000000000006</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>101.40000000000003</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>335.40000000000003</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>341.00000000000006</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>101.40000000000003</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>9.800000000000011</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>333.20000000000005</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>341.00000000000006</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>9.799999999999999</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>101.40000000000003</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>11.199999999999989</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>336.6</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>341.00000000000006</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L89" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>101.40000000000003</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>15.600000000000023</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>341.00000000000006</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>341.00000000000006</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="n">
         <v>9</v>
       </c>
     </row>
